--- a/data/pmafix.xlsx
+++ b/data/pmafix.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\rocana\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456701E9-C6F9-45E1-936E-E9CF2C127029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A0D269-76AD-4465-B05F-75A8DEAA072C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -529,6 +542,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
